--- a/SuppXLS/Scen_B_IND_Emissions.xlsx
+++ b/SuppXLS/Scen_B_IND_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4BA76A-36EC-4092-97F0-D6D1180A3CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494E305-F2A3-406D-B5DC-42A2A27A71C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
   <si>
     <t>Development</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>I*</t>
-  </si>
-  <si>
-    <t>DMD</t>
   </si>
   <si>
     <t>Other_indexes</t>
@@ -832,7 +829,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A3479B-1E0F-4E37-8E52-EFCAFBE3F64A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +873,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FFF3E08-151F-4B68-A1E8-68C499452F95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,7 +922,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B73254-0CF3-43A4-8359-5429EC3607C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -975,7 +972,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD13024-7C5E-43EF-ABCC-3DEDDCF43385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1025,7 +1022,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F3E6B88-0493-4D1D-94C8-D4BA0006F7D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +1071,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D16276E-9E56-4784-AB52-BBFF968402B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1450,7 +1447,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23:D23"/>
     </sheetView>
   </sheetViews>
@@ -1889,7 +1886,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -1975,10 +1972,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -2007,10 +2004,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
@@ -2039,10 +2036,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
@@ -2099,10 +2096,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
@@ -2187,10 +2184,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -2275,7 +2272,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="27">
         <v>1</v>
@@ -2307,10 +2304,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>94</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
@@ -2339,10 +2336,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
@@ -2372,7 +2369,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -5066,8 +5063,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:N40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,59 +5106,53 @@
         <v>68</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>65</v>
       </c>
       <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
         <v>83</v>
-      </c>
-      <c r="N4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5">
         <v>94.6</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>116.7</v>
@@ -5169,19 +5160,16 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <v>71.400000000000006</v>
@@ -5189,19 +5177,16 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>76</v>
@@ -5209,19 +5194,16 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <v>63.7</v>
@@ -5229,19 +5211,16 @@
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <v>73.3</v>
@@ -5249,19 +5228,16 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <v>92.9</v>
@@ -5269,19 +5245,16 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <v>56.9</v>

--- a/SuppXLS/Scen_B_IND_Emissions.xlsx
+++ b/SuppXLS/Scen_B_IND_Emissions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494E305-F2A3-406D-B5DC-42A2A27A71C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463B359-1246-4949-925B-38F03056FB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>Development</t>
   </si>
@@ -462,6 +462,30 @@
   </si>
   <si>
     <t>Specify combustion-related emission coefficients</t>
+  </si>
+  <si>
+    <t>Industrial Processes</t>
+  </si>
+  <si>
+    <t>Mineral industry</t>
+  </si>
+  <si>
+    <t>2018, kt</t>
+  </si>
+  <si>
+    <t>Heat demand 2018</t>
+  </si>
+  <si>
+    <t>INDCO2P</t>
+  </si>
+  <si>
+    <t>I-DMD-CEM-E0</t>
+  </si>
+  <si>
+    <t>ENV_ACT</t>
+  </si>
+  <si>
+    <t>kt/PJ useful</t>
   </si>
 </sst>
 </file>
@@ -700,7 +724,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -786,6 +810,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5061,10 +5086,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="C3:N40"/>
+  <dimension ref="C3:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,9 +5097,10 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
@@ -5083,7 +5109,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>61</v>
       </c>
@@ -5118,7 +5144,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>71</v>
       </c>
@@ -5141,7 +5167,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>71</v>
       </c>
@@ -5158,7 +5184,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>71</v>
       </c>
@@ -5175,7 +5201,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>71</v>
       </c>
@@ -5192,7 +5218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>71</v>
       </c>
@@ -5209,7 +5235,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>71</v>
       </c>
@@ -5226,7 +5252,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -5243,7 +5269,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>71</v>
       </c>
@@ -5258,6 +5284,42 @@
       </c>
       <c r="K12">
         <v>56.9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="34">
+        <f>+O13/P13</f>
+        <v>197.87211538461537</v>
+      </c>
+      <c r="M13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13">
+        <v>2057.87</v>
+      </c>
+      <c r="P13">
+        <v>10.4</v>
       </c>
     </row>
     <row r="26" spans="6:12" x14ac:dyDescent="0.25">
